--- a/pred_ohlcv/54_21/2019-10-29 REP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 REP ohlcv.xlsx
@@ -652,7 +652,7 @@
         <v>38029.61541609006</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -704,7 +704,7 @@
         <v>38034.61541609006</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -756,7 +756,7 @@
         <v>38034.61541609006</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -808,7 +808,7 @@
         <v>37727.82761609006</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>37727.82761609006</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>37938.65161331503</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>38029.95261331503</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>37880.41941331503</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>41432.13657842871</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>41878.64717842871</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>41878.64717842871</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>42962.84307842871</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>42552.36327842871</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>42840.99737842871</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>42205.03467842871</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>41938.00877842871</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>41716.79647842871</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>41716.79647842871</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>41908.46137842871</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>42279.22316310161</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>42279.22316310161</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>42279.22316310161</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>42279.22316310161</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>42259.57436310161</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>41871.90636310161</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>42029.29026310161</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>42018.87146310161</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>42096.49476310161</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>42096.49476310161</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>42096.49476310161</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>42096.49476310161</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>42096.49476310161</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>42096.49476310161</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>42183.29336310161</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>42448.62526310161</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>43093.08545224487</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>44061.94595224487</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>44309.81805224487</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>44182.30995224488</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>44182.30995224488</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>44182.30995224488</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>44305.69255224487</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>44305.69255224487</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>44300.39955224487</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>44308.13485224488</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>44916.60385224487</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>44527.22225224487</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>42466.24155224487</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>42602.46665224488</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>42405.27635224487</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>42462.19625224487</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>42288.4295632736</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>42508.8077632736</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>42508.8077632736</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>42905.73983961599</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>42905.73983961599</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>42599.20713961599</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>42570.01253961599</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>42570.01253961599</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>42367.19683961599</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>42228.32133961598</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>39640.62912069453</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>39702.60926168889</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>38644.11157473231</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>38654.72227473231</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>38949.38007473231</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>39393.60397473231</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>40250.07783929852</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>41385.2573747323</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>45056.95977473231</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>43998.11327473231</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>44431.73677527333</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>45000.23607527334</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>47218.73607527334</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>48086.51337527334</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>49553.39720856777</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>48614.77284284058</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>47087.60710582876</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>47708.24161214793</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>46351.39471214793</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>46504.72181214793</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>46504.72181214793</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>47090.11991214793</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>47494.14601214793</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>47417.34471214793</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>53941.82267644945</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>53664.17107441209</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>52469.91137441209</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>51665.41977893335</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>52236.52939509844</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>52236.52939509844</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>52897.04063630116</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>52489.31523630115</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>53403.25830209063</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>54368.80130209063</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>55151.23518359401</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>56656.74901930829</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>55535.40291930829</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>55689.45841930829</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>53903.57425623007</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>52817.89975623007</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>52817.89975623007</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>53286.07875623007</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>52898.67855580884</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>53552.46781191667</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>53552.46781191667</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>52955.81631191667</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>52872.59651191667</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>52181.00531191667</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>51895.57871191667</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>51111.07011191667</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>50541.00851191667</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>50562.48311191667</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-29 REP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 REP ohlcv.xlsx
@@ -652,7 +652,7 @@
         <v>38029.61541609006</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -704,7 +704,7 @@
         <v>38034.61541609006</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>38034.61541609006</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -782,7 +782,7 @@
         <v>38034.61541609006</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>41432.13657842871</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>41878.64717842871</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>41878.64717842871</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>42962.84307842871</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>42552.36327842871</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>42840.99737842871</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>42205.03467842871</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>41938.00877842871</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>41716.79647842871</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>41716.79647842871</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>41908.46137842871</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>42279.22316310161</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>42279.22316310161</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>42279.22316310161</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>42279.22316310161</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>42259.57436310161</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>41871.90636310161</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>42029.29026310161</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>42018.87146310161</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>42096.49476310161</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>42096.49476310161</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>42096.49476310161</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>42096.49476310161</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>42096.49476310161</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>42096.49476310161</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>42183.29336310161</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>42448.62526310161</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>43093.08545224487</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>44061.94595224487</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>44309.81805224487</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>44182.30995224488</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>44182.30995224488</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>44182.30995224488</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>44305.69255224487</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>44305.69255224487</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>44300.39955224487</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>44308.13485224488</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>44916.60385224487</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>44527.22225224487</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>42466.24155224487</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>42602.46665224488</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>42405.27635224487</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>42462.19625224487</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>42288.4295632736</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>42508.8077632736</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>42508.8077632736</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>42905.73983961599</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>42905.73983961599</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>42599.20713961599</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>42570.01253961599</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>42570.01253961599</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>42367.19683961599</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>42228.32133961598</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>39640.62912069453</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>39702.60926168889</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>38644.11157473231</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>38654.72227473231</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>38949.38007473231</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>39393.60397473231</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>40250.07783929852</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>41385.2573747323</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>45056.95977473231</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>43998.11327473231</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>44431.73677527333</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>45000.23607527334</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>47218.73607527334</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>48086.51337527334</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>49553.39720856777</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>48614.77284284058</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>47087.60710582876</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>47708.24161214793</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>46351.39471214793</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>46504.72181214793</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>46504.72181214793</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>47090.11991214793</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>47494.14601214793</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>47417.34471214793</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>53457.35702678844</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>53941.82267644945</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>53664.17107441209</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>52469.91137441209</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>51176.72617441209</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>50116.81367441209</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>50826.92771803742</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>52067.28368829918</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>51665.41977893335</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>52236.52939509844</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>52236.52939509844</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>52897.04063630116</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>52489.31523630115</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>53403.25830209063</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>54368.80130209063</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>55151.23518359401</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>56656.74901930829</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>55535.40291930829</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>55689.45841930829</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>53903.57425623007</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>52817.89975623007</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>52817.89975623007</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>53286.07875623007</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>52898.67855580884</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>53552.46781191667</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>53552.46781191667</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>52955.81631191667</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>52872.59651191667</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>52181.00531191667</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>51895.57871191667</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
